--- a/target/classes/companies/consumer_defense/TysonFoods/TSN_TysonFoods.xlsx
+++ b/target/classes/companies/consumer_defense/TysonFoods/TSN_TysonFoods.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB8B0ED-208A-4F2E-A840-E945EFDF7B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>WACC</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
+  </si>
+  <si>
+    <t>CE_Celanese</t>
+  </si>
+  <si>
+    <t>sector median (19.16)</t>
+  </si>
+  <si>
+    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1244,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,7 +1363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1372,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,11 +1387,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,18 +1413,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1433,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1746,34 +1755,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.2633385698493047E-2</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2990952634379988E-2</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9487830227443019E-2</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7937962636587943E-2</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6366962885520127E-2</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4153600319584539E-2</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6692607003891051E-2</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7724904480722474E-2</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4762269123679564E-2</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0770992079876879E-2</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,34 +1920,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.5099784721010063E-2</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2155401809473124E-2</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9610615618881877E-2</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5930153737696922E-2</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6236278097229483E-2</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7673025067412364E-2</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3432378257280985E-2</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8367488711358114E-2</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12051265701715233</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10596449082241657</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,34 +2085,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1993367079769593E-2</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4529004789781799E-2</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1476325139583783E-2</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4797863398497869E-2</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9989545216936748E-2</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4017776890042944E-2</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9571984435797664E-2</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1942804214426307E-2</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5920423388382323E-2</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5014451409481626E-2</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +2643,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14.479999542236328</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.920000076293945</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.079999923706055</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.619999885559082</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.920000076293945</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5199999809265137</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.489999771118164</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.449999809265137</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9800000190734863</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,34 +2857,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.3500003814697266</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.390000343322754</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5699996948242188</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8599996566772461</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.539999961853027</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6500000953674316</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.260000228881836</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.070000171661377</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2799997329711914</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4099998474121094</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,34 +3312,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.119999885559082</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.369999885559082</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9500000476837158</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5300002098083496</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7899999618530273</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0399999618530273</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4000000953674316</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6399998664855957</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3400001525878906</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9200000762939453</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,34 +3767,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>34374</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37580</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41373</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36881</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38260</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40052</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42405</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43185</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47049</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53282</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,34 +4201,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1895</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7535</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5975</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6200</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9297</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7962</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9830</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10791</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8281</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7862</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4338,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1894</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1960</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2880</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3538</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3682</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3912</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3962</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4248</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5670</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5646</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,34 +4461,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0005279831045406</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8443877551020407</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0746527777777777</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7524024872809496</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5249864204236827</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0352760736196318</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4810701665825339</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5402542372881354</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4604938271604939</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3924902585901524</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,34 +4957,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>756</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>546</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1716</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1530</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1763</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1254</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2675</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2631</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>800</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,34 +5094,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>319</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>431</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>537</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>601</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>636</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>653</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,34 +5233,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.13756613756613756</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5664335664335664E-2</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10687778327560614</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2084967320261438</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24446965399886558</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42822966507177035</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22467289719626168</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24173318129988597</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81625000000000003</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,34 +5753,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6573</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17735</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17588</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17485</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21808</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23421</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25928</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26858</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26487</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27191</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,34 +5890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5604</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6221</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5381</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4888</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6258</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5688</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6990</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7598</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9822</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9630</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,34 +6319,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3010</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3797</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3535</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2762</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4032</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5031</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5513</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4234</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6325</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5313</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,34 +6456,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2934</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11255</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9728</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9987</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13475</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11267</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13311</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14836</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12130</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11697</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,34 +6885,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6233</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8904</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9706</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9624</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10559</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12811</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14094</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15386</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17854</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19811</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,34 +7002,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5944</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15052</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13263</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12749</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17507</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16298</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18824</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19070</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18455</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17010</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,34 +7141,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.95363388416492856</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6904761904761905</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.366474345765506</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3247090606816292</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6580168576569752</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.272187963468894</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3356038030367532</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2394384505394513</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0336619244987117</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85861390136792692</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,34 +7604,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5604</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6221</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5381</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4888</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6258</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5688</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6990</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7598</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9822</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9630</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,34 +7721,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3010</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3797</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3535</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2762</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4032</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5031</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5513</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4234</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6325</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5313</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,34 +7899,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8617940199335548</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6383987358440875</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5222065063649222</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7697320782041999</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5520833333333333</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1305903398926656</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.267912207509523</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7945205479452055</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5528853754940712</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8125352907961603</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,34 +8479,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1894</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1960</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2880</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3538</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3682</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3912</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3962</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4248</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5670</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5646</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,34 +8672,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>778</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>864</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1220</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1768</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1774</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2970</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1980</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2061</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3047</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3238</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,34 +8868,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>756</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>546</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1716</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1530</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1763</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1254</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2675</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2631</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>800</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,34 +9308,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.3890941939722428</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6066121222240777</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3115068135312811</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9023823358512493</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3208152212641631</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.203029990724518</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0149462300261254</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9815416763408402</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3918587677986167</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7938947883001539</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,34 +9472,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.481950906465586</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.703504043126685</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.569544611580465</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.370739817123859</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.800833412254949</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.18320193583639</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.048531289910601</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.395294423501884</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.066203651842724</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.34445510070163</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,34 +9636,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.220000267028809</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4000000953674316</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.369999885559082</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.970000267028809</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.689999580383301</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.079999923706055</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8599996566772461</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.489999771118164</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.739999771118164</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,34 +10119,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>367</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>364</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>413</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>390</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>370</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>369</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>366</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>365</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>365</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>363</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18068,7 +18077,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18162,7 +18171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18684,24 +18693,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18855,49 +18864,49 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
-        <v>7.8770542906380516</v>
-      </c>
-      <c r="G12" s="119">
+        <v>7.877054290638052</v>
+      </c>
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
-        <v>6.3890941939722428</v>
-      </c>
-      <c r="H12" s="119">
+        <v>6.389094193972243</v>
+      </c>
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
         <v>3.6066121222240777</v>
       </c>
-      <c r="I12" s="119">
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
-        <v>5.3115068135312811</v>
-      </c>
-      <c r="J12" s="119">
+        <v>5.311506813531281</v>
+      </c>
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
-        <v>7.9023823358512493</v>
-      </c>
-      <c r="K12" s="119">
+        <v>7.902382335851249</v>
+      </c>
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
-        <v>6.3208152212641631</v>
-      </c>
-      <c r="L12" s="119">
+        <v>6.320815221264163</v>
+      </c>
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
         <v>10.203029990724518</v>
       </c>
-      <c r="M12" s="119">
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
-        <v>6.0149462300261254</v>
-      </c>
-      <c r="N12" s="119">
+        <v>6.014946230026125</v>
+      </c>
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
-        <v>5.9815416763408402</v>
-      </c>
-      <c r="O12" s="119">
+        <v>5.98154167634084</v>
+      </c>
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
-        <v>8.3918587677986167</v>
-      </c>
-      <c r="P12" s="119">
+        <v>8.391858767798617</v>
+      </c>
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
-        <v>8.7938947883001539</v>
+        <v>8.793894788300154</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -18929,47 +18938,47 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
         <v>16.807537280358645</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
         <v>12.481950906465586</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
         <v>9.703504043126685</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
         <v>12.569544611580465</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
-        <v>18.370739817123859</v>
-      </c>
-      <c r="K14" s="40">
+        <v>18.37073981712386</v>
+      </c>
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
-        <v>16.800833412254949</v>
-      </c>
-      <c r="L14" s="40">
+        <v>16.80083341225495</v>
+      </c>
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
         <v>23.18320193583639</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
         <v>14.048531289910601</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
         <v>13.395294423501884</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
         <v>17.066203651842724</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
         <v>16.34445510070163</v>
       </c>
@@ -19006,51 +19015,51 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
-        <v>6.3741454847226903E-2</v>
-      </c>
-      <c r="F16" s="124">
+        <v>0.0637414548472269</v>
+      </c>
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
         <v>11.933999824523926</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
         <v>10.220000267028809</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
-        <v>7.4000000953674316</v>
-      </c>
-      <c r="I16" s="40">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
         <v>8.369999885559082</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
         <v>11.970000267028809</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
-        <v>10.689999580383301</v>
-      </c>
-      <c r="L16" s="40">
+        <v>10.6899995803833</v>
+      </c>
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
         <v>15.079999923706055</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
-        <v>9.8599996566772461</v>
-      </c>
-      <c r="N16" s="40">
+        <v>9.859999656677246</v>
+      </c>
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
         <v>9.5</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
         <v>12.489999771118164</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
         <v>12.739999771118164</v>
       </c>
@@ -19093,47 +19102,47 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
-        <v>1.5116887523275251</v>
-      </c>
-      <c r="G18" s="42">
+        <v>1.511688752327525</v>
+      </c>
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
         <v>1.8617940199335548</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
         <v>1.6383987358440875</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
         <v>1.5222065063649222</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
         <v>1.7697320782041999</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
         <v>1.5520833333333333</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
         <v>1.1305903398926656</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
         <v>1.267912207509523</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
         <v>1.7945205479452055</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
         <v>1.5528853754940712</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
         <v>1.8125352907961603</v>
       </c>
@@ -19166,7 +19175,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="55" t="str">
         <f>U11</f>
@@ -19175,49 +19184,49 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
         <v>1.1479012085823475</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
-        <v>0.95363388416492856</v>
-      </c>
-      <c r="H20" s="42">
+        <v>0.9536338841649286</v>
+      </c>
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
         <v>1.6904761904761905</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
         <v>1.366474345765506</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
         <v>1.3247090606816292</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
         <v>1.6580168576569752</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
         <v>1.272187963468894</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
         <v>1.3356038030367532</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
         <v>1.2394384505394513</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
         <v>1.0336619244987117</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
-        <v>0.85861390136792692</v>
+        <v>0.8586139013679269</v>
       </c>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
@@ -19248,56 +19257,56 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="54" t="str">
         <f>T11</f>
         <v>J</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
         <v>1.9819169126481895</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
         <v>1.0005279831045406</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
         <v>3.8443877551020407</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
         <v>2.0746527777777777</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
         <v>1.7524024872809496</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
         <v>2.5249864204236827</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
-        <v>2.0352760736196318</v>
-      </c>
-      <c r="M22" s="42">
+        <v>2.035276073619632</v>
+      </c>
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
-        <v>2.4810701665825339</v>
-      </c>
-      <c r="N22" s="42">
+        <v>2.481070166582534</v>
+      </c>
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
         <v>2.5402542372881354</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
-        <v>1.4604938271604939</v>
-      </c>
-      <c r="P22" s="42">
+        <v>1.460493827160494</v>
+      </c>
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
         <v>1.3924902585901524</v>
       </c>
@@ -19342,45 +19351,45 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
-        <v>367</v>
-      </c>
-      <c r="H24" s="40">
+        <v>367.0</v>
+      </c>
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
-        <v>364</v>
-      </c>
-      <c r="I24" s="40">
+        <v>364.0</v>
+      </c>
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
-        <v>413</v>
-      </c>
-      <c r="J24" s="40">
+        <v>413.0</v>
+      </c>
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
-        <v>390</v>
-      </c>
-      <c r="K24" s="40">
+        <v>390.0</v>
+      </c>
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
-        <v>370</v>
-      </c>
-      <c r="L24" s="40">
+        <v>370.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
-        <v>369</v>
-      </c>
-      <c r="M24" s="40">
+        <v>369.0</v>
+      </c>
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
-        <v>366</v>
-      </c>
-      <c r="N24" s="40">
+        <v>366.0</v>
+      </c>
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
-        <v>365</v>
-      </c>
-      <c r="O24" s="40">
+        <v>365.0</v>
+      </c>
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
-        <v>365</v>
-      </c>
-      <c r="P24" s="40">
+        <v>365.0</v>
+      </c>
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
-        <v>363</v>
+        <v>363.0</v>
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
@@ -19420,51 +19429,51 @@
         <v>J</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="57">
+        <v>163</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
-        <v>10.287999916076661</v>
-      </c>
-      <c r="G26" s="44">
+        <v>10.28799991607666</v>
+      </c>
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
         <v>14.479999542236328</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>16.920000076293945</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
         <v>18.079999923706055</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
         <v>13.619999885559082</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
         <v>16.920000076293945</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
-        <v>6.5199999809265137</v>
-      </c>
-      <c r="M26" s="44">
+        <v>6.519999980926514</v>
+      </c>
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
         <v>16.489999771118164</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
-        <v>11</v>
-      </c>
-      <c r="O26" s="44">
+        <v>11.0</v>
+      </c>
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
         <v>10.449999809265137</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
-        <v>6.9800000190734863</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
@@ -19502,51 +19511,51 @@
         <v>J</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="57">
+        <v>164</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
-        <v>8.5340000152587887</v>
-      </c>
-      <c r="G28" s="44">
+        <v>8.534000015258789</v>
+      </c>
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
-        <v>9.3500003814697266</v>
-      </c>
-      <c r="H28" s="44">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
         <v>12.390000343322754</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
-        <v>8.5699996948242188</v>
-      </c>
-      <c r="J28" s="44">
+        <v>8.569999694824219</v>
+      </c>
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
-        <v>8.8599996566772461</v>
-      </c>
-      <c r="K28" s="44">
+        <v>8.859999656677246</v>
+      </c>
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
         <v>11.539999961853027</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
-        <v>6.6500000953674316</v>
-      </c>
-      <c r="M28" s="44">
+        <v>6.650000095367432</v>
+      </c>
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
         <v>13.260000228881836</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
         <v>6.070000171661377</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
-        <v>8.2799997329711914</v>
-      </c>
-      <c r="P28" s="44">
+        <v>8.279999732971191</v>
+      </c>
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
-        <v>8.4099998474121094</v>
+        <v>8.40999984741211</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -19582,7 +19591,7 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
         <v>7.179999828338623</v>
       </c>
@@ -19618,7 +19627,7 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
         <v>-0.14617761843909893</v>
       </c>
@@ -19635,9 +19644,9 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
-        <v>5.6730663876813914E-3</v>
+        <v>0.005673066387681391</v>
       </c>
     </row>
     <row r="34" spans="2:17">
@@ -19659,9 +19668,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
-        <v>7.6139086068863548E-2</v>
+        <v>0.07613908606886355</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19676,7 +19685,7 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
         <v>0.24414838408334805</v>
       </c>
@@ -19701,9 +19710,9 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
-        <v>1.7428922123943869E-2</v>
+        <v>0.01742892212394387</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="18.5">
@@ -19718,7 +19727,7 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
         <v>0.15326662715954398</v>
       </c>
@@ -19742,9 +19751,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
-        <v>5.8744731312915022E-2</v>
+        <v>0.05874473131291502</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19759,9 +19768,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>4.4804524308318605E-2</v>
+        <v>0.044804524308318605</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19781,9 +19790,9 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
-        <v>0.39107107951335679</v>
+        <v>0.3910710795133568</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
@@ -19798,9 +19807,9 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
-        <v>8.6643739463315939E-2</v>
+        <v>0.08664373946331594</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="18.5">
@@ -19815,9 +19824,9 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
-        <v>0.16023666392629529</v>
+        <v>0.1602366639262953</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="18.5">
@@ -19832,7 +19841,7 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
         <v>0.24688040338961123</v>
       </c>
@@ -19856,13 +19865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19875,14 +19884,14 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19910,7 +19919,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19918,56 +19927,56 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
-        <v>22.069999694824219</v>
+      <c r="C5" s="58" t="n">
+        <v>22.06999969482422</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>5313000</v>
+      <c r="C6" s="59" t="n">
+        <v>5313000.0</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>11697000</v>
+      <c r="C7" s="59" t="n">
+        <v>1.1697E7</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>349000</v>
+      <c r="C8" s="59" t="n">
+        <v>349000.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>3173000</v>
+      <c r="C9" s="59" t="n">
+        <v>3173000.0</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>730000</v>
+      <c r="C10" s="59" t="n">
+        <v>730000.0</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
-        <v>0.74000000953674316</v>
+      <c r="C11" s="60" t="n">
+        <v>0.7400000095367432</v>
       </c>
       <c r="G11" s="33"/>
     </row>
@@ -19992,7 +20001,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20000,38 +20009,38 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>17010000</v>
+        <v>1.701E7</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.0517342739564962E-2</v>
+        <v>0.020517342739564962</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
-        <v>9.7380000829696639E-2</v>
+        <v>0.09738000082969664</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.0517342739564962E-2</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.020517342739564962</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20039,11 +20048,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>39079999.694824204</v>
-      </c>
-      <c r="K21" t="s">
+        <v>3.9079999694824204E7</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20051,11 +20060,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
-        <v>0.56473899353042156</v>
-      </c>
-      <c r="K22" t="s">
+        <v>0.5647389935304216</v>
+      </c>
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20063,7 +20072,7 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
         <v>0.43526100646957844</v>
       </c>
@@ -20079,9 +20088,9 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
-        <v>6.3741454847226903E-2</v>
+        <v>0.0637414548472269</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -20114,20 +20123,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20140,9 +20149,9 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
-        <v>6.3741454847226903E-2</v>
+        <v>0.0637414548472269</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -20157,50 +20166,50 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>1.9999999552965164E-2</v>
+      <c r="C6" s="65" t="n">
+        <v>0.019999999552965164</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
-        <f>AVERAGE(C28:L28)</f>
-        <v>4.6352146709017862E-2</v>
+      <c r="C7" s="13" t="n">
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
+        <v>0.04635214670901786</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="n">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
-        <v>0.86511694757818736</v>
+        <v>0.8651169475781874</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
-        <v>7.929999828338623</v>
+      <c r="C9" s="66" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="67" t="n">
+        <v>0.08500000089406967</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>359589312</v>
+      <c r="C11" s="59" t="n">
+        <v>3.59589312E8</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20250,45 +20259,45 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
-        <v>34374</v>
-      </c>
-      <c r="D16" s="21">
+        <v>34374.0</v>
+      </c>
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
-        <v>37580</v>
-      </c>
-      <c r="E16" s="21">
+        <v>37580.0</v>
+      </c>
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
-        <v>41373</v>
-      </c>
-      <c r="F16" s="21">
+        <v>41373.0</v>
+      </c>
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
-        <v>36881</v>
-      </c>
-      <c r="G16" s="21">
+        <v>36881.0</v>
+      </c>
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
-        <v>38260</v>
-      </c>
-      <c r="H16" s="21">
+        <v>38260.0</v>
+      </c>
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
-        <v>40052</v>
-      </c>
-      <c r="I16" s="21">
+        <v>40052.0</v>
+      </c>
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
-        <v>42405</v>
-      </c>
-      <c r="J16" s="21">
+        <v>42405.0</v>
+      </c>
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
-        <v>43185</v>
-      </c>
-      <c r="K16" s="21">
+        <v>43185.0</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
-        <v>47049</v>
-      </c>
-      <c r="L16" s="21">
+        <v>47049.0</v>
+      </c>
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
-        <v>53282</v>
+        <v>53282.0</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -20296,41 +20305,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>9.3268167801245125E-2</v>
-      </c>
-      <c r="E17" s="20">
+        <v>0.09326816780124512</v>
+      </c>
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.10093134646088345</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>-0.10857322408333937</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>3.7390526287248177E-2</v>
-      </c>
-      <c r="H17" s="20">
+        <v>0.03739052628724818</v>
+      </c>
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>4.6837428123366442E-2</v>
-      </c>
-      <c r="I17" s="20">
+        <v>0.04683742812336644</v>
+      </c>
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>5.8748626785179267E-2</v>
-      </c>
-      <c r="J17" s="20">
+        <v>0.05874862678517927</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>1.839405730456314E-2</v>
-      </c>
-      <c r="K17" s="20">
+        <v>0.01839405730456314</v>
+      </c>
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>8.9475512330670373E-2</v>
-      </c>
-      <c r="L17" s="20">
+        <v>0.08947551233067037</v>
+      </c>
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>0.13247890497141279</v>
+        <v>0.1324789049714128</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20350,45 +20359,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
-        <v>778</v>
-      </c>
-      <c r="D19" s="21">
+        <v>778.0</v>
+      </c>
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
-        <v>864</v>
-      </c>
-      <c r="E19" s="21">
+        <v>864.0</v>
+      </c>
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
-        <v>1220</v>
-      </c>
-      <c r="F19" s="21">
+        <v>1220.0</v>
+      </c>
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
-        <v>1768</v>
-      </c>
-      <c r="G19" s="21">
+        <v>1768.0</v>
+      </c>
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
-        <v>1774</v>
-      </c>
-      <c r="H19" s="21">
+        <v>1774.0</v>
+      </c>
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
-        <v>2970</v>
-      </c>
-      <c r="I19" s="21">
+        <v>2970.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
-        <v>1980</v>
-      </c>
-      <c r="J19" s="21">
+        <v>1980.0</v>
+      </c>
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
-        <v>2061</v>
-      </c>
-      <c r="K19" s="21">
+        <v>2061.0</v>
+      </c>
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
-        <v>3047</v>
-      </c>
-      <c r="L19" s="21">
+        <v>3047.0</v>
+      </c>
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
-        <v>3238</v>
+        <v>3238.0</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20396,86 +20405,86 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
         <v>0.11053984575835475</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
         <v>0.41203703703703703</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.44918032786885248</v>
-      </c>
-      <c r="G20" s="20">
+        <v>0.4491803278688525</v>
+      </c>
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>3.3936651583710408E-3</v>
-      </c>
-      <c r="H20" s="20">
+        <v>0.003393665158371041</v>
+      </c>
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.67418263810597523</v>
-      </c>
-      <c r="I20" s="20">
+        <v>0.6741826381059752</v>
+      </c>
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="J20" s="20">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>4.0909090909090909E-2</v>
-      </c>
-      <c r="K20" s="20">
+        <v>0.04090909090909091</v>
+      </c>
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.47840853954391072</v>
-      </c>
-      <c r="L20" s="20">
+        <v>0.4784085395439107</v>
+      </c>
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>6.2684607810961607E-2</v>
+        <v>0.0626846078109616</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
-        <v>756</v>
-      </c>
-      <c r="D22" s="25">
+        <v>756.0</v>
+      </c>
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
-        <v>546</v>
-      </c>
-      <c r="E22" s="25">
+        <v>546.0</v>
+      </c>
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
-        <v>1716</v>
-      </c>
-      <c r="F22" s="25">
+        <v>1716.0</v>
+      </c>
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
-        <v>2021</v>
-      </c>
-      <c r="G22" s="25">
+        <v>2021.0</v>
+      </c>
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
-        <v>1530</v>
-      </c>
-      <c r="H22" s="25">
+        <v>1530.0</v>
+      </c>
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
-        <v>1763</v>
-      </c>
-      <c r="I22" s="25">
+        <v>1763.0</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
-        <v>1254</v>
-      </c>
-      <c r="J22" s="25">
+        <v>1254.0</v>
+      </c>
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
-        <v>2675</v>
-      </c>
-      <c r="K22" s="25">
+        <v>2675.0</v>
+      </c>
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
-        <v>2631</v>
-      </c>
-      <c r="L22" s="25">
+        <v>2631.0</v>
+      </c>
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
-        <v>800</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20483,41 +20492,41 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
-        <v>-0.27777777777777779</v>
-      </c>
-      <c r="E23" s="26">
+        <v>-0.2777777777777778</v>
+      </c>
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="F23" s="26">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.17773892773892774</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.2429490351311232</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.15228758169934639</v>
-      </c>
-      <c r="I23" s="26">
+        <v>0.1522875816993464</v>
+      </c>
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-0.28871242200794101</v>
-      </c>
-      <c r="J23" s="26">
+        <v>-0.288712422007941</v>
+      </c>
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>1.1331738437001595</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-1.6448598130841121E-2</v>
-      </c>
-      <c r="L23" s="26">
+        <v>-0.01644859813084112</v>
+      </c>
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-0.69593310528316232</v>
+        <v>-0.6959331052831623</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -20537,45 +20546,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
-        <v>1894</v>
-      </c>
-      <c r="D25" s="62">
+        <v>1894.0</v>
+      </c>
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
-        <v>1960</v>
-      </c>
-      <c r="E25" s="62">
+        <v>1960.0</v>
+      </c>
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
-        <v>2880</v>
-      </c>
-      <c r="F25" s="62">
+        <v>2880.0</v>
+      </c>
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
-        <v>3538</v>
-      </c>
-      <c r="G25" s="62">
+        <v>3538.0</v>
+      </c>
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
-        <v>3682</v>
-      </c>
-      <c r="H25" s="62">
+        <v>3682.0</v>
+      </c>
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
-        <v>3912</v>
-      </c>
-      <c r="I25" s="62">
+        <v>3912.0</v>
+      </c>
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
-        <v>3962</v>
-      </c>
-      <c r="J25" s="62">
+        <v>3962.0</v>
+      </c>
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
-        <v>4248</v>
-      </c>
-      <c r="K25" s="62">
+        <v>4248.0</v>
+      </c>
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
-        <v>5670</v>
-      </c>
-      <c r="L25" s="62">
+        <v>5670.0</v>
+      </c>
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
-        <v>5646</v>
+        <v>5646.0</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20583,129 +20592,129 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
-        <v>3.4846884899683211E-2</v>
-      </c>
-      <c r="E26" s="63">
+        <v>0.03484688489968321</v>
+      </c>
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
         <v>0.46938775510204084</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
         <v>0.22847222222222222</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
-        <v>4.0700960994912383E-2</v>
-      </c>
-      <c r="H26" s="63">
+        <v>0.04070096099491238</v>
+      </c>
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
-        <v>6.2466051059206953E-2</v>
-      </c>
-      <c r="I26" s="63">
+        <v>0.06246605105920695</v>
+      </c>
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
-        <v>1.278118609406953E-2</v>
-      </c>
-      <c r="J26" s="63">
+        <v>0.01278118609406953</v>
+      </c>
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
-        <v>7.2185764765270069E-2</v>
-      </c>
-      <c r="K26" s="63">
+        <v>0.07218576476527007</v>
+      </c>
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
         <v>0.3347457627118644</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
-        <v>-4.2328042328042331E-3</v>
+        <v>-0.004232804232804233</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" thickBot="1">
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
-        <v>2.2633385698493047E-2</v>
-      </c>
-      <c r="D28" s="24">
+        <v>0.022633385698493047</v>
+      </c>
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>2.2990952634379988E-2</v>
-      </c>
-      <c r="E28" s="24">
+        <v>0.022990952634379988</v>
+      </c>
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>2.9487830227443019E-2</v>
-      </c>
-      <c r="F28" s="24">
+        <v>0.02948783022744302</v>
+      </c>
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>4.7937962636587943E-2</v>
-      </c>
-      <c r="G28" s="24">
+        <v>0.04793796263658794</v>
+      </c>
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>4.6366962885520127E-2</v>
-      </c>
-      <c r="H28" s="24">
+        <v>0.04636696288552013</v>
+      </c>
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>7.4153600319584539E-2</v>
-      </c>
-      <c r="I28" s="24">
+        <v>0.07415360031958454</v>
+      </c>
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>4.6692607003891051E-2</v>
-      </c>
-      <c r="J28" s="24">
+        <v>0.04669260700389105</v>
+      </c>
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>4.7724904480722474E-2</v>
-      </c>
-      <c r="K28" s="24">
+        <v>0.047724904480722474</v>
+      </c>
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>6.4762269123679564E-2</v>
-      </c>
-      <c r="L28" s="24">
+        <v>0.06476226912367956</v>
+      </c>
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>6.0770992079876879E-2</v>
+        <v>0.06077099207987688</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" thickBot="1">
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
-        <v>0.97172236503856046</v>
-      </c>
-      <c r="D29" s="24">
+        <v>0.9717223650385605</v>
+      </c>
+      <c r="D29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="E29" s="24">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="E29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.4065573770491804</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.1430995475113122</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>0.8624577226606539</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.59360269360269358</v>
-      </c>
-      <c r="I29" s="24">
+        <v>0.5936026936026936</v>
+      </c>
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.2979136341581756</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.86347226780439779</v>
-      </c>
-      <c r="L29" s="24">
+        <v>0.8634722678043978</v>
+      </c>
+      <c r="L29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>0.24706609017912293</v>
       </c>
@@ -20754,87 +20763,87 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
         <v>55077.603426359674</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
-        <v>56019.430486478966</v>
-      </c>
-      <c r="E36" s="21">
+        <v>56019.43048647897</v>
+      </c>
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
-        <v>57111.809403503641</v>
-      </c>
-      <c r="F36" s="21">
+        <v>57111.80940350364</v>
+      </c>
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
         <v>58254.04556604298</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>59419.126451322554</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>60607.508953786921</v>
-      </c>
-      <c r="I36" s="21">
+        <v>60607.50895378692</v>
+      </c>
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>61819.659105769264</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>63056.052260249446</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>64317.17327726644</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>65603.516714060024</v>
+        <v>65603.51671406002</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
-        <v>3.3700000494718552E-2</v>
-      </c>
-      <c r="D37" s="68">
-        <v>1.7100000753998756E-2</v>
-      </c>
-      <c r="E37" s="68">
-        <v>1.9500000402331352E-2</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="C37" s="68" t="n">
+        <v>0.03370000049471855</v>
+      </c>
+      <c r="D37" s="68" t="n">
+        <v>0.017100000753998756</v>
+      </c>
+      <c r="E37" s="68" t="n">
+        <v>0.019500000402331352</v>
+      </c>
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>1.9999999552965164E-2</v>
+        <v>0.019999999552965164</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20854,88 +20863,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
         <v>2552.965154399732</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
         <v>2596.6208604649046</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
         <v>2647.254968288667</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
         <v>2700.200066471039</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
         <v>2754.2040665933914</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
-        <v>2809.2881466940462</v>
-      </c>
-      <c r="I39" s="21">
+        <v>2809.288146694046</v>
+      </c>
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
-        <v>2865.4739083720929</v>
-      </c>
-      <c r="J39" s="21">
+        <v>2865.473908372093</v>
+      </c>
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
         <v>2922.78338525858</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
         <v>2981.2390516571777</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
-        <v>3040.8638313576171</v>
+        <v>3040.863831357617</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
         <v>-0.21156110117364668</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>1.7100000754000585E-2</v>
-      </c>
-      <c r="E40" s="20">
+        <v>0.017100000754000585</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>1.9500000402329375E-2</v>
-      </c>
-      <c r="F40" s="20">
+        <v>0.019500000402329375</v>
+      </c>
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.9999999552970372E-2</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.019999999552970372</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.9999999552970753E-2</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.019999999552970753</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.9999999552969581E-2</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.01999999955296958</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.9999999552970632E-2</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.019999999552970632</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.9999999552969338E-2</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.019999999552969338</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.99999995529693E-2</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.0199999995529693</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>1.9999999552969695E-2</v>
+        <v>0.019999999552969695</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20955,180 +20964,180 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
         <v>2208.6134216477694</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
         <v>2246.3807128232397</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
         <v>2290.1851376270843</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
         <v>2335.9888393558435</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
         <v>2382.7086150987034</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
         <v>2430.3627863355387</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>2478.9700409758002</v>
-      </c>
-      <c r="J42" s="21">
+        <v>2478.9700409758</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
         <v>2528.549440687143</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
         <v>2579.1204283705483</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>2630.7028357850149</v>
+        <v>2630.702835785015</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
         <v>1.7607667770597124</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>1.7100000753999509E-2</v>
-      </c>
-      <c r="E43" s="20">
+        <v>0.01710000075399951</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>1.9500000402332213E-2</v>
-      </c>
-      <c r="F43" s="20">
+        <v>0.019500000402332213</v>
+      </c>
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.9999999552969633E-2</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.019999999552969633</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.9999999552970039E-2</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.01999999955297004</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.9999999552971482E-2</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.019999999552971482</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.9999999552968262E-2</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.019999999552968262</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.9999999552970313E-2</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.019999999552970313</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.9999999552969983E-2</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.019999999552969983</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>1.9999999552969924E-2</v>
+        <v>0.019999999552969924</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="21" t="n">
         <f>L25*(1+C46)</f>
-        <v>6041.22</v>
-      </c>
-      <c r="D45" s="21">
+        <v>6125.910005047919</v>
+      </c>
+      <c r="D45" s="21" t="n">
         <f>C45*(1+D46)</f>
-        <v>6464.1054000000004</v>
-      </c>
-      <c r="E45" s="21">
+        <v>6646.612360953985</v>
+      </c>
+      <c r="E45" s="21" t="n">
         <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>6916.5927780000011</v>
-      </c>
-      <c r="F45" s="21">
+        <v>7211.574417577616</v>
+      </c>
+      <c r="F45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>7400.7542724600016</v>
-      </c>
-      <c r="G45" s="21">
+        <v>7824.55824951937</v>
+      </c>
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>7918.8070715322019</v>
-      </c>
-      <c r="H45" s="21">
+        <v>8489.64570772422</v>
+      </c>
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8473.1235665394561</v>
-      </c>
-      <c r="I45" s="21">
+        <v>9211.265600471117</v>
+      </c>
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>9066.242216197219</v>
-      </c>
-      <c r="J45" s="21">
+        <v>9994.223184746681</v>
+      </c>
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>9700.8791713310256</v>
-      </c>
-      <c r="K45" s="21">
+        <v>10843.732164385683</v>
+      </c>
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>10379.940713324198</v>
-      </c>
-      <c r="L45" s="21">
+        <v>11765.44940805354</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>11106.536563256894</v>
+        <v>12765.512618257182</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.08500000089406967</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.08500000089406967</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.08500000089406967</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.08500000089406967</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.08500000089406967</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.08500000089406967</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.08500000089406967</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.08500000089406967</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.08500000089406967</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.08500000089406967</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21178,43 +21187,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
         <v>1.0637414548472268</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
         <v>1.1315458827604947</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
         <v>1.2036722635540382</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
-        <v>1.2803960847922271</v>
-      </c>
-      <c r="G51" s="61">
+        <v>1.280396084792227</v>
+      </c>
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
         <v>1.362010394017577</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
         <v>1.4488269180493019</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>1.5411772536275883</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
         <v>1.6394141339512642</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
         <v>1.7439127759464244</v>
       </c>
-      <c r="L51" s="61">
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
         <v>1.8550723134119151</v>
       </c>
@@ -21236,43 +21245,43 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>2076.2690140387181</v>
-      </c>
-      <c r="D53" s="21">
+        <v>2076.269014038718</v>
+      </c>
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>1985.2316614356175</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>1902.6650417821645</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>1824.4267278706191</v>
-      </c>
-      <c r="G53" s="21">
+        <v>1824.426727870619</v>
+      </c>
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>1749.4056033378151</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>1677.4693761265696</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>1608.4911940796255</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>1542.34942124899</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>1478.9274234033085</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
         <v>1418.1133623554117</v>
       </c>
@@ -21294,7 +21303,7 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
         <v>1.9733173215156015</v>
       </c>
@@ -21353,18 +21362,18 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>37519.659551926859</v>
+        <v>37519.65955192686</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>19013.495266493708</v>
+        <v>19013.49526649371</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21372,7 +21381,7 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
         <v>54783.0083776057</v>
       </c>
@@ -21384,7 +21393,7 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
         <v>152.34882280818653</v>
       </c>
@@ -21423,18 +21432,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>88074.833040063808</v>
+        <v>102124.1009460576</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>44632.878898776478</v>
+        <v>51752.498106904524</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21445,9 +21454,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>61896.227724455319</v>
+        <v>69015.84693258337</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21455,9 +21464,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>172.13033218422052</v>
+        <v>191.92963925630636</v>
       </c>
     </row>
   </sheetData>
@@ -21481,7 +21490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21495,15 +21504,15 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
-        <v>6.7300000190734863</v>
+      <c r="C15" s="78" t="n">
+        <v>6.730000019073486</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21511,7 +21520,7 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="78" t="n">
         <v>7.5</v>
       </c>
     </row>
@@ -21519,7 +21528,7 @@
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21533,9 +21542,9 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
-        <v>97.143439189341407</v>
+        <v>97.14343918934141</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickTop="1"/>
@@ -21553,23 +21562,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="117" t="n">
         <v>1.8600000143051147</v>
       </c>
     </row>
@@ -21646,7 +21655,7 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
         <v>1.8600000143051147</v>
       </c>
@@ -21655,113 +21664,113 @@
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
         <v>1.911150014421342</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
         <v>1.9637066395331464</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
         <v>2.0177085718276997</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
-        <v>2.0731955572523031</v>
-      </c>
-      <c r="G7" s="90">
+        <v>2.073195557252303</v>
+      </c>
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
-        <v>2.1302084347678112</v>
-      </c>
-      <c r="H7" s="90">
+        <v>2.130208434767811</v>
+      </c>
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
         <v>2.1887891664065022</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
-        <v>2.2489808681565271</v>
-      </c>
-      <c r="J7" s="90">
+        <v>2.248980868156527</v>
+      </c>
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
         <v>2.3108278416957138</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
         <v>2.3743756069980058</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
         <v>2.4396709358366495</v>
       </c>
-      <c r="M7" s="159">
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>69.168356691771805</v>
+        <v>69.1683566917718</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>2.7499999850988388E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.027499999850988388</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
         <v>1.7966301921511663</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
-        <v>1.7354193669482869</v>
-      </c>
-      <c r="E8" s="90">
+        <v>1.735419366948287</v>
+      </c>
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
         <v>1.6762939821094525</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
         <v>1.6191829871056795</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
         <v>1.5640177520850216</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
         <v>1.5107319854006336</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
         <v>1.4592616539485819</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
         <v>1.4095449062197796</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
         <v>1.3615219979734585</v>
       </c>
-      <c r="L8" s="90">
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
         <v>1.3151352204429776</v>
       </c>
-      <c r="M8" s="159">
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
-        <v>37.286070301245942</v>
+        <v>37.28607030124594</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>6.3741454847226903E-2</v>
+        <v>0.0637414548472269</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -21772,9 +21781,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>52.733810345630999</v>
+        <v>52.733810345631</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21867,7 +21876,7 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
         <v>1.8600000143051147</v>
       </c>
@@ -21876,103 +21885,103 @@
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
         <v>1.9158000134870403</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
         <v>1.9732740126070114</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
         <v>2.0324722316620414</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
-        <v>2.0934463972490271</v>
-      </c>
-      <c r="G16" s="90">
+        <v>2.093446397249027</v>
+      </c>
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
         <v>2.1562497877627402</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
-        <v>2.2209372799497489</v>
-      </c>
-      <c r="I16" s="90">
+        <v>2.220937279949749</v>
+      </c>
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
-        <v>2.2875653968589931</v>
-      </c>
-      <c r="J16" s="90">
+        <v>2.287565396858993</v>
+      </c>
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
         <v>2.3561923572308325</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
         <v>2.4268781263678103</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
         <v>2.4996844685315014</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
-        <v>76.305985067971378</v>
+        <v>76.30598506797138</v>
       </c>
       <c r="N16" s="160"/>
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
-        <v>2.9999999329447746E-2</v>
+      <c r="P16" s="104" t="n">
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
         <v>1.8010015542378002</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
         <v>1.7438745018390787</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
         <v>1.6885594968025865</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
         <v>1.634999061707326</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
         <v>1.5831375422931673</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
         <v>1.5329210496309795</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
         <v>1.4842974041269865</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
         <v>1.4372160813033956</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
-        <v>1.3916281592987041</v>
-      </c>
-      <c r="L17" s="90">
+        <v>1.391628159298704</v>
+      </c>
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
         <v>1.3474862680333926</v>
       </c>
-      <c r="M17" s="159">
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
         <v>41.133698409646634</v>
       </c>
@@ -21980,9 +21989,9 @@
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>6.3741454847226903E-2</v>
+        <v>0.0637414548472269</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -21993,9 +22002,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>56.778819528920103</v>
+        <v>56.7788195289201</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22082,7 +22091,7 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
         <v>1.8600000143051147</v>
       </c>
@@ -22091,47 +22100,47 @@
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
         <v>1.9251000150829474</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
         <v>1.9924785158977123</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
-        <v>2.0622152642510292</v>
-      </c>
-      <c r="F25" s="90">
+        <v>2.062215264251029</v>
+      </c>
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
         <v>2.1343927988071068</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
         <v>2.2090965470834045</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
         <v>2.2864149265604965</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
         <v>2.3664394493308163</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
         <v>2.449264830410022</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
-        <v>2.5349890998393358</v>
-      </c>
-      <c r="L25" s="90">
+        <v>2.534989099839336</v>
+      </c>
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
         <v>2.6237137187114556</v>
       </c>
-      <c r="M25" s="159">
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
         <v>94.48177650611197</v>
       </c>
@@ -22139,65 +22148,65 @@
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
-        <v>3.5000000149011612E-2</v>
+      <c r="P25" s="104" t="n">
+        <v>0.03500000014901161</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
         <v>1.8097442816679778</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
-        <v>1.7608464192692841</v>
-      </c>
-      <c r="E26" s="90">
+        <v>1.760846419269284</v>
+      </c>
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
         <v>1.7132697385266658</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
         <v>1.6669785421543664</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
         <v>1.6219380973790765</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
         <v>1.5781146098796455</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
         <v>1.5354751984307746</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
         <v>1.4939878702319624</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
         <v>1.4536214969029075</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
         <v>1.4143457911275843</v>
       </c>
-      <c r="M26" s="159">
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
-        <v>50.931586775901742</v>
+        <v>50.93158677590174</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
+      <c r="P26" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>6.3741454847226903E-2</v>
+        <v>0.0637414548472269</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -22208,9 +22217,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>66.979908821471994</v>
+        <v>66.979908821472</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22253,12 +22262,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22301,38 +22310,38 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
-        <v>33055</v>
-      </c>
-      <c r="D3" s="110">
-        <v>34374</v>
-      </c>
-      <c r="E3" s="110">
-        <v>37580</v>
-      </c>
-      <c r="F3" s="110">
-        <v>41373</v>
-      </c>
-      <c r="G3" s="110">
-        <v>36881</v>
-      </c>
-      <c r="H3" s="110">
-        <v>38260</v>
-      </c>
-      <c r="I3" s="110">
-        <v>40052</v>
-      </c>
-      <c r="J3" s="110">
-        <v>42405</v>
-      </c>
-      <c r="K3" s="110">
-        <v>43185</v>
-      </c>
-      <c r="L3" s="110">
-        <v>47049</v>
-      </c>
-      <c r="M3" s="110">
-        <v>53282</v>
+      <c r="C3" s="120" t="n">
+        <v>33055.0</v>
+      </c>
+      <c r="D3" s="110" t="n">
+        <v>34374.0</v>
+      </c>
+      <c r="E3" s="110" t="n">
+        <v>37580.0</v>
+      </c>
+      <c r="F3" s="110" t="n">
+        <v>41373.0</v>
+      </c>
+      <c r="G3" s="110" t="n">
+        <v>36881.0</v>
+      </c>
+      <c r="H3" s="110" t="n">
+        <v>38260.0</v>
+      </c>
+      <c r="I3" s="110" t="n">
+        <v>40052.0</v>
+      </c>
+      <c r="J3" s="110" t="n">
+        <v>42405.0</v>
+      </c>
+      <c r="K3" s="110" t="n">
+        <v>43185.0</v>
+      </c>
+      <c r="L3" s="110" t="n">
+        <v>47049.0</v>
+      </c>
+      <c r="M3" s="110" t="n">
+        <v>53282.0</v>
       </c>
       <c r="Q3" s="107"/>
     </row>
@@ -22341,45 +22350,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>3.9903191650279835E-2</v>
-      </c>
-      <c r="E4" s="121">
+        <v>0.039903191650279835</v>
+      </c>
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>9.3268167801245125E-2</v>
-      </c>
-      <c r="F4" s="121">
+        <v>0.09326816780124512</v>
+      </c>
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.10093134646088345</v>
       </c>
-      <c r="G4" s="121">
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>-0.10857322408333937</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>3.7390526287248177E-2</v>
-      </c>
-      <c r="I4" s="121">
+        <v>0.03739052628724818</v>
+      </c>
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>4.6837428123366442E-2</v>
-      </c>
-      <c r="J4" s="121">
+        <v>0.04683742812336644</v>
+      </c>
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>5.8748626785179267E-2</v>
-      </c>
-      <c r="K4" s="121">
+        <v>0.05874862678517927</v>
+      </c>
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>1.839405730456314E-2</v>
-      </c>
-      <c r="L4" s="121">
+        <v>0.01839405730456314</v>
+      </c>
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>8.9475512330670373E-2</v>
-      </c>
-      <c r="M4" s="121">
+        <v>0.08947551233067037</v>
+      </c>
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>0.13247890497141279</v>
+        <v>0.1324789049714128</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22402,38 +22411,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
-        <v>583</v>
-      </c>
-      <c r="D6" s="110">
-        <v>778</v>
-      </c>
-      <c r="E6" s="110">
-        <v>864</v>
-      </c>
-      <c r="F6" s="110">
-        <v>1220</v>
-      </c>
-      <c r="G6" s="110">
-        <v>1768</v>
-      </c>
-      <c r="H6" s="110">
-        <v>1774</v>
-      </c>
-      <c r="I6" s="110">
-        <v>2970</v>
-      </c>
-      <c r="J6" s="110">
-        <v>1980</v>
-      </c>
-      <c r="K6" s="110">
-        <v>2061</v>
-      </c>
-      <c r="L6" s="110">
-        <v>3047</v>
-      </c>
-      <c r="M6" s="110">
-        <v>3238</v>
+      <c r="C6" s="110" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="D6" s="110" t="n">
+        <v>778.0</v>
+      </c>
+      <c r="E6" s="110" t="n">
+        <v>864.0</v>
+      </c>
+      <c r="F6" s="110" t="n">
+        <v>1220.0</v>
+      </c>
+      <c r="G6" s="110" t="n">
+        <v>1768.0</v>
+      </c>
+      <c r="H6" s="110" t="n">
+        <v>1774.0</v>
+      </c>
+      <c r="I6" s="110" t="n">
+        <v>2970.0</v>
+      </c>
+      <c r="J6" s="110" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="K6" s="110" t="n">
+        <v>2061.0</v>
+      </c>
+      <c r="L6" s="110" t="n">
+        <v>3047.0</v>
+      </c>
+      <c r="M6" s="110" t="n">
+        <v>3238.0</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22442,45 +22451,45 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
-        <v>0.33447684391080618</v>
-      </c>
-      <c r="E7" s="121">
+        <v>0.3344768439108062</v>
+      </c>
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
         <v>0.11053984575835475</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
         <v>0.41203703703703703</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
-        <v>0.44918032786885248</v>
-      </c>
-      <c r="H7" s="121">
+        <v>0.4491803278688525</v>
+      </c>
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
-        <v>3.3936651583710408E-3</v>
-      </c>
-      <c r="I7" s="121">
+        <v>0.003393665158371041</v>
+      </c>
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
-        <v>0.67418263810597523</v>
-      </c>
-      <c r="J7" s="121">
+        <v>0.6741826381059752</v>
+      </c>
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="K7" s="121">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
-        <v>4.0909090909090909E-2</v>
-      </c>
-      <c r="L7" s="121">
+        <v>0.04090909090909091</v>
+      </c>
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
-        <v>0.47840853954391072</v>
-      </c>
-      <c r="M7" s="121">
+        <v>0.4784085395439107</v>
+      </c>
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
-        <v>6.2684607810961607E-2</v>
+        <v>0.0626846078109616</v>
       </c>
       <c r="Q7" s="107"/>
     </row>
@@ -22501,38 +22510,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
-        <v>1785</v>
-      </c>
-      <c r="D9" s="110">
-        <v>1894</v>
-      </c>
-      <c r="E9" s="110">
-        <v>1960</v>
-      </c>
-      <c r="F9" s="110">
-        <v>2880</v>
-      </c>
-      <c r="G9" s="110">
-        <v>3538</v>
-      </c>
-      <c r="H9" s="110">
-        <v>3682</v>
-      </c>
-      <c r="I9" s="110">
-        <v>3912</v>
-      </c>
-      <c r="J9" s="110">
-        <v>3962</v>
-      </c>
-      <c r="K9" s="110">
-        <v>4248</v>
-      </c>
-      <c r="L9" s="110">
-        <v>5670</v>
-      </c>
-      <c r="M9" s="110">
-        <v>5646</v>
+      <c r="C9" s="110" t="n">
+        <v>1785.0</v>
+      </c>
+      <c r="D9" s="110" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="E9" s="110" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="F9" s="110" t="n">
+        <v>2880.0</v>
+      </c>
+      <c r="G9" s="110" t="n">
+        <v>3538.0</v>
+      </c>
+      <c r="H9" s="110" t="n">
+        <v>3682.0</v>
+      </c>
+      <c r="I9" s="110" t="n">
+        <v>3912.0</v>
+      </c>
+      <c r="J9" s="110" t="n">
+        <v>3962.0</v>
+      </c>
+      <c r="K9" s="110" t="n">
+        <v>4248.0</v>
+      </c>
+      <c r="L9" s="110" t="n">
+        <v>5670.0</v>
+      </c>
+      <c r="M9" s="110" t="n">
+        <v>5646.0</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22541,45 +22550,45 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>6.1064425770308121E-2</v>
-      </c>
-      <c r="E10" s="121">
+        <v>0.06106442577030812</v>
+      </c>
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
-        <v>3.4846884899683211E-2</v>
-      </c>
-      <c r="F10" s="121">
+        <v>0.03484688489968321</v>
+      </c>
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
         <v>0.46938775510204084</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
         <v>0.22847222222222222</v>
       </c>
-      <c r="H10" s="121">
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
-        <v>4.0700960994912383E-2</v>
-      </c>
-      <c r="I10" s="121">
+        <v>0.04070096099491238</v>
+      </c>
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>6.2466051059206953E-2</v>
-      </c>
-      <c r="J10" s="121">
+        <v>0.06246605105920695</v>
+      </c>
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
-        <v>1.278118609406953E-2</v>
-      </c>
-      <c r="K10" s="121">
+        <v>0.01278118609406953</v>
+      </c>
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
-        <v>7.2185764765270069E-2</v>
-      </c>
-      <c r="L10" s="121">
+        <v>0.07218576476527007</v>
+      </c>
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
         <v>0.3347457627118644</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
-        <v>-4.2328042328042331E-3</v>
+        <v>-0.004232804232804233</v>
       </c>
       <c r="Q10" s="107"/>
     </row>
@@ -22592,38 +22601,38 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
-        <v>370</v>
-      </c>
-      <c r="D12" s="110">
-        <v>367</v>
-      </c>
-      <c r="E12" s="110">
-        <v>364</v>
-      </c>
-      <c r="F12" s="110">
-        <v>413</v>
-      </c>
-      <c r="G12" s="110">
-        <v>390</v>
-      </c>
-      <c r="H12" s="110">
-        <v>370</v>
-      </c>
-      <c r="I12" s="110">
-        <v>369</v>
-      </c>
-      <c r="J12" s="110">
-        <v>366</v>
-      </c>
-      <c r="K12" s="110">
-        <v>365</v>
-      </c>
-      <c r="L12" s="110">
-        <v>365</v>
-      </c>
-      <c r="M12" s="110">
-        <v>363</v>
+      <c r="C12" s="110" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="D12" s="110" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="E12" s="110" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="F12" s="110" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="G12" s="110" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="H12" s="110" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="I12" s="110" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="J12" s="110" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="K12" s="110" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="L12" s="110" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="M12" s="110" t="n">
+        <v>363.0</v>
       </c>
       <c r="Q12" s="107"/>
     </row>
@@ -22632,45 +22641,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>-8.1081081081081086E-3</v>
-      </c>
-      <c r="E13" s="121">
+        <v>-0.008108108108108109</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>-8.1743869209809257E-3</v>
-      </c>
-      <c r="F13" s="121">
+        <v>-0.008174386920980926</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>0.13461538461538461</v>
-      </c>
-      <c r="G13" s="121">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-5.569007263922518E-2</v>
-      </c>
-      <c r="H13" s="121">
+        <v>-0.05569007263922518</v>
+      </c>
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>-5.128205128205128E-2</v>
-      </c>
-      <c r="I13" s="121">
+        <v>-0.05128205128205128</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-2.7027027027027029E-3</v>
-      </c>
-      <c r="J13" s="121">
+        <v>-0.002702702702702703</v>
+      </c>
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-8.130081300813009E-3</v>
-      </c>
-      <c r="K13" s="121">
+        <v>-0.008130081300813009</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>-2.7322404371584699E-3</v>
-      </c>
-      <c r="L13" s="121">
+        <v>-0.00273224043715847</v>
+      </c>
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="121">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-5.4794520547945206E-3</v>
+        <v>-0.005479452054794521</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22683,38 +22692,38 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="110" t="n">
         <v>1.5800000429153442</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="110" t="n">
         <v>2.119999885559082</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="110" t="n">
         <v>2.369999885559082</v>
       </c>
-      <c r="F15" s="110">
-        <v>2.9500000476837158</v>
-      </c>
-      <c r="G15" s="110">
-        <v>4.5300002098083496</v>
-      </c>
-      <c r="H15" s="110">
-        <v>4.7899999618530273</v>
-      </c>
-      <c r="I15" s="110">
-        <v>8.0399999618530273</v>
-      </c>
-      <c r="J15" s="110">
-        <v>5.4000000953674316</v>
-      </c>
-      <c r="K15" s="110">
-        <v>5.6399998664855957</v>
-      </c>
-      <c r="L15" s="110">
-        <v>8.3400001525878906</v>
-      </c>
-      <c r="M15" s="110">
-        <v>8.9200000762939453</v>
+      <c r="F15" s="110" t="n">
+        <v>2.950000047683716</v>
+      </c>
+      <c r="G15" s="110" t="n">
+        <v>4.53000020980835</v>
+      </c>
+      <c r="H15" s="110" t="n">
+        <v>4.789999961853027</v>
+      </c>
+      <c r="I15" s="110" t="n">
+        <v>8.039999961853027</v>
+      </c>
+      <c r="J15" s="110" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="K15" s="110" t="n">
+        <v>5.639999866485596</v>
+      </c>
+      <c r="L15" s="110" t="n">
+        <v>8.34000015258789</v>
+      </c>
+      <c r="M15" s="110" t="n">
+        <v>8.920000076293945</v>
       </c>
       <c r="Q15" s="107"/>
     </row>
@@ -22722,45 +22731,45 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
         <v>0.34177204302308517</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
         <v>0.11792453466763785</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
-        <v>0.24472581862079401</v>
-      </c>
-      <c r="G16" s="121">
+        <v>0.244725818620794</v>
+      </c>
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
-        <v>0.53559326663916973</v>
-      </c>
-      <c r="H16" s="121">
+        <v>0.5355932666391697</v>
+      </c>
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
-        <v>5.7395086093313397E-2</v>
-      </c>
-      <c r="I16" s="121">
+        <v>0.0573950860933134</v>
+      </c>
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
-        <v>0.67849687387945723</v>
-      </c>
-      <c r="J16" s="121">
+        <v>0.6784968738794572</v>
+      </c>
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
         <v>-0.3283581939068993</v>
       </c>
-      <c r="K16" s="121">
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
-        <v>4.4444401274002905E-2</v>
-      </c>
-      <c r="L16" s="121">
+        <v>0.044444401274002905</v>
+      </c>
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
-        <v>0.47872346631538409</v>
-      </c>
-      <c r="M16" s="121">
+        <v>0.4787234663153841</v>
+      </c>
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
-        <v>6.9544354088061006E-2</v>
+        <v>0.069544354088061</v>
       </c>
       <c r="Q16" s="107"/>
     </row>
@@ -22808,38 +22817,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
-        <v>497</v>
-      </c>
-      <c r="D20" s="128">
-        <v>756</v>
-      </c>
-      <c r="E20" s="128">
-        <v>546</v>
-      </c>
-      <c r="F20" s="128">
-        <v>1716</v>
-      </c>
-      <c r="G20" s="128">
-        <v>2021</v>
-      </c>
-      <c r="H20" s="128">
-        <v>1530</v>
-      </c>
-      <c r="I20" s="128">
-        <v>1763</v>
-      </c>
-      <c r="J20" s="128">
-        <v>1254</v>
-      </c>
-      <c r="K20" s="128">
-        <v>2675</v>
-      </c>
-      <c r="L20" s="128">
-        <v>2631</v>
-      </c>
-      <c r="M20" s="128">
-        <v>800</v>
+      <c r="C20" s="110" t="n">
+        <v>497.0</v>
+      </c>
+      <c r="D20" s="128" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>546.0</v>
+      </c>
+      <c r="F20" s="128" t="n">
+        <v>1716.0</v>
+      </c>
+      <c r="G20" s="128" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="H20" s="128" t="n">
+        <v>1530.0</v>
+      </c>
+      <c r="I20" s="128" t="n">
+        <v>1763.0</v>
+      </c>
+      <c r="J20" s="128" t="n">
+        <v>1254.0</v>
+      </c>
+      <c r="K20" s="128" t="n">
+        <v>2675.0</v>
+      </c>
+      <c r="L20" s="128" t="n">
+        <v>2631.0</v>
+      </c>
+      <c r="M20" s="128" t="n">
+        <v>800.0</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22868,42 +22877,43 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
-        <v>-0.27777777777777779</v>
-      </c>
-      <c r="F21" s="131">
+        <v>-0.2777777777777778</v>
+      </c>
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="G21" s="131">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
         <v>0.17773892773892774</v>
       </c>
-      <c r="H21" s="131">
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
         <v>-0.2429490351311232</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
-        <v>0.15228758169934639</v>
-      </c>
-      <c r="J21" s="131">
+        <v>0.1522875816993464</v>
+      </c>
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
-        <v>-0.28871242200794101</v>
-      </c>
-      <c r="K21" s="131">
+        <v>-0.288712422007941</v>
+      </c>
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
         <v>1.1331738437001595</v>
       </c>
-      <c r="L21" s="131">
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
-        <v>-1.6448598130841121E-2</v>
-      </c>
-      <c r="M21" s="131">
+        <v>-0.01644859813084112</v>
+      </c>
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
-        <v>-0.69593310528316232</v>
+        <v>-0.6959331052831623</v>
       </c>
       <c r="O21" s="107"/>
       <c r="P21" s="107"/>
@@ -22966,38 +22976,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>57</v>
-      </c>
-      <c r="D23" s="130">
-        <v>104</v>
-      </c>
-      <c r="E23" s="130">
-        <v>104</v>
-      </c>
-      <c r="F23" s="130">
-        <v>147</v>
-      </c>
-      <c r="G23" s="130">
-        <v>216</v>
-      </c>
-      <c r="H23" s="130">
-        <v>319</v>
-      </c>
-      <c r="I23" s="130">
-        <v>431</v>
-      </c>
-      <c r="J23" s="130">
-        <v>537</v>
-      </c>
-      <c r="K23" s="130">
-        <v>601</v>
-      </c>
-      <c r="L23" s="130">
-        <v>636</v>
-      </c>
-      <c r="M23" s="130">
-        <v>653</v>
+      <c r="C23" s="113" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D23" s="130" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="E23" s="130" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="F23" s="130" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="G23" s="130" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="H23" s="130" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>431.0</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
+        <v>601.0</v>
+      </c>
+      <c r="L23" s="130" t="n">
+        <v>636.0</v>
+      </c>
+      <c r="M23" s="130" t="n">
+        <v>653.0</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23023,45 +23033,45 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
-        <v>0.82456140350877194</v>
-      </c>
-      <c r="E24" s="121">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="121">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
         <v>0.41346153846153844</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
         <v>0.46938775510204084</v>
       </c>
-      <c r="H24" s="121">
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
         <v>0.47685185185185186</v>
       </c>
-      <c r="I24" s="121">
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
-        <v>0.35109717868338558</v>
-      </c>
-      <c r="J24" s="121">
+        <v>0.3510971786833856</v>
+      </c>
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
-        <v>0.24593967517401391</v>
-      </c>
-      <c r="K24" s="121">
+        <v>0.2459396751740139</v>
+      </c>
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
-        <v>0.11918063314711359</v>
-      </c>
-      <c r="L24" s="121">
+        <v>0.1191806331471136</v>
+      </c>
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
-        <v>5.8236272878535771E-2</v>
-      </c>
-      <c r="M24" s="121">
+        <v>0.05823627287853577</v>
+      </c>
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
-        <v>2.6729559748427674E-2</v>
+        <v>0.026729559748427674</v>
       </c>
       <c r="O24" s="107"/>
       <c r="P24" s="107"/>
@@ -23198,38 +23208,38 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
-        <v>5403</v>
-      </c>
-      <c r="D28" s="110">
-        <v>5604</v>
-      </c>
-      <c r="E28" s="110">
-        <v>6221</v>
-      </c>
-      <c r="F28" s="110">
-        <v>5381</v>
-      </c>
-      <c r="G28" s="110">
-        <v>4888</v>
-      </c>
-      <c r="H28" s="110">
-        <v>6258</v>
-      </c>
-      <c r="I28" s="110">
-        <v>5688</v>
-      </c>
-      <c r="J28" s="110">
-        <v>6990</v>
-      </c>
-      <c r="K28" s="110">
-        <v>7598</v>
-      </c>
-      <c r="L28" s="110">
-        <v>9822</v>
-      </c>
-      <c r="M28" s="110">
-        <v>9630</v>
+      <c r="C28" s="110" t="n">
+        <v>5403.0</v>
+      </c>
+      <c r="D28" s="110" t="n">
+        <v>5604.0</v>
+      </c>
+      <c r="E28" s="110" t="n">
+        <v>6221.0</v>
+      </c>
+      <c r="F28" s="110" t="n">
+        <v>5381.0</v>
+      </c>
+      <c r="G28" s="110" t="n">
+        <v>4888.0</v>
+      </c>
+      <c r="H28" s="110" t="n">
+        <v>6258.0</v>
+      </c>
+      <c r="I28" s="110" t="n">
+        <v>5688.0</v>
+      </c>
+      <c r="J28" s="110" t="n">
+        <v>6990.0</v>
+      </c>
+      <c r="K28" s="110" t="n">
+        <v>7598.0</v>
+      </c>
+      <c r="L28" s="110" t="n">
+        <v>9822.0</v>
+      </c>
+      <c r="M28" s="110" t="n">
+        <v>9630.0</v>
       </c>
       <c r="O28" s="107"/>
       <c r="P28" s="107"/>
@@ -23259,45 +23269,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
-        <v>3.720155469183787E-2</v>
-      </c>
-      <c r="E29" s="121">
+        <v>0.03720155469183787</v>
+      </c>
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
         <v>0.11009992862241257</v>
       </c>
-      <c r="F29" s="121">
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
         <v>-0.13502652306703103</v>
       </c>
-      <c r="G29" s="121">
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
-        <v>-9.1618658241962456E-2</v>
-      </c>
-      <c r="H29" s="121">
+        <v>-0.09161865824196246</v>
+      </c>
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
         <v>0.280278232405892</v>
       </c>
-      <c r="I29" s="121">
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>-9.1083413231064239E-2</v>
-      </c>
-      <c r="J29" s="121">
+        <v>-0.09108341323106424</v>
+      </c>
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
         <v>0.2289029535864979</v>
       </c>
-      <c r="K29" s="121">
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
-        <v>8.6981402002861224E-2</v>
-      </c>
-      <c r="L29" s="121">
+        <v>0.08698140200286122</v>
+      </c>
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
-        <v>0.29270860752829692</v>
-      </c>
-      <c r="M29" s="121">
+        <v>0.2927086075282969</v>
+      </c>
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>-1.9547953573610263E-2</v>
+        <v>-0.019547953573610263</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23350,38 +23360,38 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
-        <v>6493</v>
-      </c>
-      <c r="D31" s="110">
-        <v>6573</v>
-      </c>
-      <c r="E31" s="110">
-        <v>17735</v>
-      </c>
-      <c r="F31" s="110">
-        <v>17588</v>
-      </c>
-      <c r="G31" s="110">
-        <v>17485</v>
-      </c>
-      <c r="H31" s="110">
-        <v>21808</v>
-      </c>
-      <c r="I31" s="110">
-        <v>23421</v>
-      </c>
-      <c r="J31" s="110">
-        <v>25928</v>
-      </c>
-      <c r="K31" s="110">
-        <v>26858</v>
-      </c>
-      <c r="L31" s="110">
-        <v>26487</v>
-      </c>
-      <c r="M31" s="110">
-        <v>27191</v>
+      <c r="C31" s="110" t="n">
+        <v>6493.0</v>
+      </c>
+      <c r="D31" s="110" t="n">
+        <v>6573.0</v>
+      </c>
+      <c r="E31" s="110" t="n">
+        <v>17735.0</v>
+      </c>
+      <c r="F31" s="110" t="n">
+        <v>17588.0</v>
+      </c>
+      <c r="G31" s="110" t="n">
+        <v>17485.0</v>
+      </c>
+      <c r="H31" s="110" t="n">
+        <v>21808.0</v>
+      </c>
+      <c r="I31" s="110" t="n">
+        <v>23421.0</v>
+      </c>
+      <c r="J31" s="110" t="n">
+        <v>25928.0</v>
+      </c>
+      <c r="K31" s="110" t="n">
+        <v>26858.0</v>
+      </c>
+      <c r="L31" s="110" t="n">
+        <v>26487.0</v>
+      </c>
+      <c r="M31" s="110" t="n">
+        <v>27191.0</v>
       </c>
       <c r="O31" s="107"/>
       <c r="P31" s="107"/>
@@ -23411,45 +23421,45 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>1.2320961034960727E-2</v>
-      </c>
-      <c r="E32" s="121">
+        <v>0.012320961034960727</v>
+      </c>
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
         <v>1.6981591358588164</v>
       </c>
-      <c r="F32" s="121">
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>-8.2886946715534249E-3</v>
-      </c>
-      <c r="G32" s="121">
+        <v>-0.008288694671553425</v>
+      </c>
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>-5.856265635660678E-3</v>
-      </c>
-      <c r="H32" s="121">
+        <v>-0.005856265635660678</v>
+      </c>
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
         <v>0.24724049185015728</v>
       </c>
-      <c r="I32" s="121">
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>7.3963683052090973E-2</v>
-      </c>
-      <c r="J32" s="121">
+        <v>0.07396368305209097</v>
+      </c>
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
         <v>0.1070406899790786</v>
       </c>
-      <c r="K32" s="121">
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>3.5868559086701633E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>0.03586855908670163</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
-        <v>-1.3813388934395711E-2</v>
-      </c>
-      <c r="M32" s="121">
+        <v>-0.013813388934395711</v>
+      </c>
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
-        <v>2.657907652810813E-2</v>
+        <v>0.02657907652810813</v>
       </c>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
@@ -23503,45 +23513,45 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
-        <v>12177</v>
-      </c>
-      <c r="E34" s="111">
+        <v>12177.0</v>
+      </c>
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
-        <v>23956</v>
-      </c>
-      <c r="F34" s="111">
+        <v>23956.0</v>
+      </c>
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>22969</v>
-      </c>
-      <c r="G34" s="111">
+        <v>22969.0</v>
+      </c>
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>22373</v>
-      </c>
-      <c r="H34" s="111">
+        <v>22373.0</v>
+      </c>
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>28066</v>
-      </c>
-      <c r="I34" s="111">
+        <v>28066.0</v>
+      </c>
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>29109</v>
-      </c>
-      <c r="J34" s="111">
+        <v>29109.0</v>
+      </c>
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>32918</v>
-      </c>
-      <c r="K34" s="111">
+        <v>32918.0</v>
+      </c>
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>34456</v>
-      </c>
-      <c r="L34" s="111">
+        <v>34456.0</v>
+      </c>
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>36309</v>
-      </c>
-      <c r="M34" s="111">
+        <v>36309.0</v>
+      </c>
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>36821</v>
+        <v>36821.0</v>
       </c>
       <c r="O34" s="107"/>
       <c r="P34" s="107"/>
@@ -23594,38 +23604,38 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
-        <v>2830</v>
-      </c>
-      <c r="D36" s="118">
-        <v>3010</v>
-      </c>
-      <c r="E36" s="110">
-        <v>3797</v>
-      </c>
-      <c r="F36" s="110">
-        <v>3535</v>
-      </c>
-      <c r="G36" s="110">
-        <v>2762</v>
-      </c>
-      <c r="H36" s="110">
-        <v>4032</v>
-      </c>
-      <c r="I36" s="110">
-        <v>5031</v>
-      </c>
-      <c r="J36" s="110">
-        <v>5513</v>
-      </c>
-      <c r="K36" s="110">
-        <v>4234</v>
-      </c>
-      <c r="L36" s="110">
-        <v>6325</v>
-      </c>
-      <c r="M36" s="110">
-        <v>5313</v>
+      <c r="C36" s="113" t="n">
+        <v>2830.0</v>
+      </c>
+      <c r="D36" s="118" t="n">
+        <v>3010.0</v>
+      </c>
+      <c r="E36" s="110" t="n">
+        <v>3797.0</v>
+      </c>
+      <c r="F36" s="110" t="n">
+        <v>3535.0</v>
+      </c>
+      <c r="G36" s="110" t="n">
+        <v>2762.0</v>
+      </c>
+      <c r="H36" s="110" t="n">
+        <v>4032.0</v>
+      </c>
+      <c r="I36" s="110" t="n">
+        <v>5031.0</v>
+      </c>
+      <c r="J36" s="110" t="n">
+        <v>5513.0</v>
+      </c>
+      <c r="K36" s="110" t="n">
+        <v>4234.0</v>
+      </c>
+      <c r="L36" s="110" t="n">
+        <v>6325.0</v>
+      </c>
+      <c r="M36" s="110" t="n">
+        <v>5313.0</v>
       </c>
       <c r="O36" s="107"/>
       <c r="P36" s="107"/>
@@ -23655,43 +23665,43 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
-        <v>6.3604240282685506E-2</v>
-      </c>
-      <c r="E37" s="121">
+        <v>0.0636042402826855</v>
+      </c>
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
-        <v>0.26146179401993358</v>
-      </c>
-      <c r="F37" s="121">
+        <v>0.2614617940199336</v>
+      </c>
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>-6.9001843560705822E-2</v>
-      </c>
-      <c r="G37" s="121">
+        <v>-0.06900184356070582</v>
+      </c>
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
         <v>-0.21867043847241868</v>
       </c>
-      <c r="H37" s="121">
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
         <v>0.45981173062997827</v>
       </c>
-      <c r="I37" s="121">
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
         <v>0.24776785714285715</v>
       </c>
-      <c r="J37" s="121">
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
-        <v>9.5806002782746966E-2</v>
-      </c>
-      <c r="K37" s="121">
+        <v>0.09580600278274697</v>
+      </c>
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
         <v>-0.23199709776890984</v>
       </c>
-      <c r="L37" s="121">
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
         <v>0.49385923476617855</v>
       </c>
-      <c r="M37" s="121">
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
         <v>-0.16</v>
       </c>
@@ -23746,38 +23756,38 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
-        <v>3024</v>
-      </c>
-      <c r="D39" s="110">
-        <v>2934</v>
-      </c>
-      <c r="E39" s="110">
-        <v>11255</v>
-      </c>
-      <c r="F39" s="110">
-        <v>9728</v>
-      </c>
-      <c r="G39" s="110">
-        <v>9987</v>
-      </c>
-      <c r="H39" s="110">
-        <v>13475</v>
-      </c>
-      <c r="I39" s="110">
-        <v>11267</v>
-      </c>
-      <c r="J39" s="110">
-        <v>13311</v>
-      </c>
-      <c r="K39" s="110">
-        <v>14836</v>
-      </c>
-      <c r="L39" s="110">
-        <v>12130</v>
-      </c>
-      <c r="M39" s="110">
-        <v>11697</v>
+      <c r="C39" s="113" t="n">
+        <v>3024.0</v>
+      </c>
+      <c r="D39" s="110" t="n">
+        <v>2934.0</v>
+      </c>
+      <c r="E39" s="110" t="n">
+        <v>11255.0</v>
+      </c>
+      <c r="F39" s="110" t="n">
+        <v>9728.0</v>
+      </c>
+      <c r="G39" s="110" t="n">
+        <v>9987.0</v>
+      </c>
+      <c r="H39" s="110" t="n">
+        <v>13475.0</v>
+      </c>
+      <c r="I39" s="110" t="n">
+        <v>11267.0</v>
+      </c>
+      <c r="J39" s="110" t="n">
+        <v>13311.0</v>
+      </c>
+      <c r="K39" s="110" t="n">
+        <v>14836.0</v>
+      </c>
+      <c r="L39" s="110" t="n">
+        <v>12130.0</v>
+      </c>
+      <c r="M39" s="110" t="n">
+        <v>11697.0</v>
       </c>
       <c r="O39" s="107"/>
       <c r="P39" s="107"/>
@@ -23807,45 +23817,45 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>-2.976190476190476E-2</v>
-      </c>
-      <c r="E40" s="121">
+        <v>-0.02976190476190476</v>
+      </c>
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
         <v>2.8360599863667346</v>
       </c>
-      <c r="F40" s="121">
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
-        <v>-0.13567303420701909</v>
-      </c>
-      <c r="G40" s="121">
+        <v>-0.1356730342070191</v>
+      </c>
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
-        <v>2.6624177631578948E-2</v>
-      </c>
-      <c r="H40" s="121">
+        <v>0.026624177631578948</v>
+      </c>
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
-        <v>0.34925403023931112</v>
-      </c>
-      <c r="I40" s="121">
+        <v>0.3492540302393111</v>
+      </c>
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
         <v>-0.16385899814471244</v>
       </c>
-      <c r="J40" s="121">
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
         <v>0.18141475104286856</v>
       </c>
-      <c r="K40" s="121">
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
         <v>0.11456689955675757</v>
       </c>
-      <c r="L40" s="121">
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
         <v>-0.18239417632785118</v>
       </c>
-      <c r="M40" s="121">
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
-        <v>-3.5696619950535864E-2</v>
+        <v>-0.035696619950535864</v>
       </c>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
@@ -23901,45 +23911,45 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
-        <v>5944</v>
-      </c>
-      <c r="E42" s="111">
+        <v>5944.0</v>
+      </c>
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
-        <v>15052</v>
-      </c>
-      <c r="F42" s="111">
+        <v>15052.0</v>
+      </c>
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>13263</v>
-      </c>
-      <c r="G42" s="111">
+        <v>13263.0</v>
+      </c>
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>12749</v>
-      </c>
-      <c r="H42" s="111">
+        <v>12749.0</v>
+      </c>
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>17507</v>
-      </c>
-      <c r="I42" s="111">
+        <v>17507.0</v>
+      </c>
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>16298</v>
-      </c>
-      <c r="J42" s="111">
+        <v>16298.0</v>
+      </c>
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>18824</v>
-      </c>
-      <c r="K42" s="111">
+        <v>18824.0</v>
+      </c>
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>19070</v>
-      </c>
-      <c r="L42" s="111">
+        <v>19070.0</v>
+      </c>
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>18455</v>
-      </c>
-      <c r="M42" s="111">
+        <v>18455.0</v>
+      </c>
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>17010</v>
+        <v>17010.0</v>
       </c>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -23997,45 +24007,45 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
-        <v>6233</v>
-      </c>
-      <c r="E44" s="134">
+        <v>6233.0</v>
+      </c>
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
-        <v>8904</v>
-      </c>
-      <c r="F44" s="134">
+        <v>8904.0</v>
+      </c>
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>9706</v>
-      </c>
-      <c r="G44" s="134">
+        <v>9706.0</v>
+      </c>
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>9624</v>
-      </c>
-      <c r="H44" s="134">
+        <v>9624.0</v>
+      </c>
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>10559</v>
-      </c>
-      <c r="I44" s="134">
+        <v>10559.0</v>
+      </c>
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>12811</v>
-      </c>
-      <c r="J44" s="134">
+        <v>12811.0</v>
+      </c>
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>14094</v>
-      </c>
-      <c r="K44" s="134">
+        <v>14094.0</v>
+      </c>
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>15386</v>
-      </c>
-      <c r="L44" s="134">
+        <v>15386.0</v>
+      </c>
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>17854</v>
-      </c>
-      <c r="M44" s="134">
+        <v>17854.0</v>
+      </c>
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>19811</v>
+        <v>19811.0</v>
       </c>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
@@ -24097,40 +24107,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="133">
-        <v>1917</v>
-      </c>
-      <c r="D46" s="133">
-        <v>1895</v>
-      </c>
-      <c r="E46" s="133">
-        <v>7535</v>
-      </c>
-      <c r="F46" s="133">
-        <v>5975</v>
-      </c>
-      <c r="G46" s="133">
-        <v>6200</v>
-      </c>
-      <c r="H46" s="133">
-        <v>9297</v>
-      </c>
-      <c r="I46" s="133">
-        <v>7962</v>
-      </c>
-      <c r="J46" s="133">
-        <v>9830</v>
-      </c>
-      <c r="K46" s="136">
-        <v>10791</v>
-      </c>
-      <c r="L46" s="133">
-        <v>8281</v>
-      </c>
-      <c r="M46" s="133">
-        <v>7862</v>
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
+        <v>1917.0</v>
+      </c>
+      <c r="D46" s="133" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="E46" s="133" t="n">
+        <v>7535.0</v>
+      </c>
+      <c r="F46" s="133" t="n">
+        <v>5975.0</v>
+      </c>
+      <c r="G46" s="133" t="n">
+        <v>6200.0</v>
+      </c>
+      <c r="H46" s="133" t="n">
+        <v>9297.0</v>
+      </c>
+      <c r="I46" s="133" t="n">
+        <v>7962.0</v>
+      </c>
+      <c r="J46" s="133" t="n">
+        <v>9830.0</v>
+      </c>
+      <c r="K46" s="136" t="n">
+        <v>10791.0</v>
+      </c>
+      <c r="L46" s="133" t="n">
+        <v>8281.0</v>
+      </c>
+      <c r="M46" s="133" t="n">
+        <v>7862.0</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24264,45 +24274,45 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
-        <v>2.2633385698493047E-2</v>
-      </c>
-      <c r="E50" s="126">
+        <v>0.022633385698493047</v>
+      </c>
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>2.2990952634379988E-2</v>
-      </c>
-      <c r="F50" s="126">
+        <v>0.022990952634379988</v>
+      </c>
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>2.9487830227443019E-2</v>
-      </c>
-      <c r="G50" s="126">
+        <v>0.02948783022744302</v>
+      </c>
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>4.7937962636587943E-2</v>
-      </c>
-      <c r="H50" s="126">
+        <v>0.04793796263658794</v>
+      </c>
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>4.6366962885520127E-2</v>
-      </c>
-      <c r="I50" s="126">
+        <v>0.04636696288552013</v>
+      </c>
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>7.4153600319584539E-2</v>
-      </c>
-      <c r="J50" s="126">
+        <v>0.07415360031958454</v>
+      </c>
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>4.6692607003891051E-2</v>
-      </c>
-      <c r="K50" s="126">
+        <v>0.04669260700389105</v>
+      </c>
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>4.7724904480722474E-2</v>
-      </c>
-      <c r="L50" s="126">
+        <v>0.047724904480722474</v>
+      </c>
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>6.4762269123679564E-2</v>
-      </c>
-      <c r="M50" s="126">
+        <v>0.06476226912367956</v>
+      </c>
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>6.0770992079876879E-2</v>
+        <v>0.06077099207987688</v>
       </c>
       <c r="O50" s="107"/>
       <c r="P50" s="107"/>
@@ -24332,43 +24342,43 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
-        <v>5.5099784721010063E-2</v>
-      </c>
-      <c r="E51" s="126">
+        <v>0.05509978472101006</v>
+      </c>
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>5.2155401809473124E-2</v>
-      </c>
-      <c r="F51" s="126">
+        <v>0.052155401809473124</v>
+      </c>
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>6.9610615618881877E-2</v>
-      </c>
-      <c r="G51" s="126">
+        <v>0.06961061561888188</v>
+      </c>
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>9.5930153737696922E-2</v>
-      </c>
-      <c r="H51" s="126">
+        <v>0.09593015373769692</v>
+      </c>
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>9.6236278097229483E-2</v>
-      </c>
-      <c r="I51" s="126">
+        <v>0.09623627809722948</v>
+      </c>
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>9.7673025067412364E-2</v>
-      </c>
-      <c r="J51" s="126">
+        <v>0.09767302506741236</v>
+      </c>
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>9.3432378257280985E-2</v>
-      </c>
-      <c r="K51" s="126">
+        <v>0.09343237825728098</v>
+      </c>
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>9.8367488711358114E-2</v>
-      </c>
-      <c r="L51" s="126">
+        <v>0.09836748871135811</v>
+      </c>
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.12051265701715233</v>
       </c>
-      <c r="M51" s="126">
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.10596449082241657</v>
       </c>
@@ -24400,45 +24410,45 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
-        <v>2.1993367079769593E-2</v>
-      </c>
-      <c r="E52" s="126">
+        <v>0.021993367079769593</v>
+      </c>
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>1.4529004789781799E-2</v>
-      </c>
-      <c r="F52" s="126">
+        <v>0.014529004789781799</v>
+      </c>
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>4.1476325139583783E-2</v>
-      </c>
-      <c r="G52" s="126">
+        <v>0.04147632513958378</v>
+      </c>
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>5.4797863398497869E-2</v>
-      </c>
-      <c r="H52" s="126">
+        <v>0.05479786339849787</v>
+      </c>
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>3.9989545216936748E-2</v>
-      </c>
-      <c r="I52" s="126">
+        <v>0.03998954521693675</v>
+      </c>
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>4.4017776890042944E-2</v>
-      </c>
-      <c r="J52" s="126">
+        <v>0.044017776890042944</v>
+      </c>
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>2.9571984435797664E-2</v>
-      </c>
-      <c r="K52" s="126">
+        <v>0.029571984435797664</v>
+      </c>
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>6.1942804214426307E-2</v>
-      </c>
-      <c r="L52" s="126">
+        <v>0.06194280421442631</v>
+      </c>
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>5.5920423388382323E-2</v>
-      </c>
-      <c r="M52" s="126">
+        <v>0.05592042338838232</v>
+      </c>
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>1.5014451409481626E-2</v>
+        <v>0.015014451409481626</v>
       </c>
       <c r="O52" s="107"/>
       <c r="P52" s="107"/>
@@ -24550,45 +24560,45 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
         <v>0.13756613756613756</v>
       </c>
-      <c r="E55" s="126">
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
         <v>0.19047619047619047</v>
       </c>
-      <c r="F55" s="126">
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>8.5664335664335664E-2</v>
-      </c>
-      <c r="G55" s="126">
+        <v>0.08566433566433566</v>
+      </c>
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.10687778327560614</v>
       </c>
-      <c r="H55" s="126">
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.2084967320261438</v>
       </c>
-      <c r="I55" s="126">
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.24446965399886558</v>
       </c>
-      <c r="J55" s="126">
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.42822966507177035</v>
       </c>
-      <c r="K55" s="126">
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.22467289719626168</v>
       </c>
-      <c r="L55" s="126">
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.24173318129988597</v>
       </c>
-      <c r="M55" s="126">
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.81625000000000003</v>
+        <v>0.81625</v>
       </c>
       <c r="O55" s="107"/>
       <c r="P55" s="107"/>
@@ -24700,45 +24710,45 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
-        <v>0.95363388416492856</v>
-      </c>
-      <c r="E58" s="112">
+        <v>0.9536338841649286</v>
+      </c>
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
         <v>1.6904761904761905</v>
       </c>
-      <c r="F58" s="112">
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.366474345765506</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.3247090606816292</v>
       </c>
-      <c r="H58" s="112">
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.6580168576569752</v>
       </c>
-      <c r="I58" s="112">
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.272187963468894</v>
       </c>
-      <c r="J58" s="112">
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.3356038030367532</v>
       </c>
-      <c r="K58" s="112">
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.2394384505394513</v>
       </c>
-      <c r="L58" s="112">
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.0336619244987117</v>
       </c>
-      <c r="M58" s="112">
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>0.85861390136792692</v>
+        <v>0.8586139013679269</v>
       </c>
       <c r="O58" s="107"/>
       <c r="P58" s="107"/>
@@ -24768,43 +24778,43 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
         <v>1.8617940199335548</v>
       </c>
-      <c r="E59" s="112">
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
         <v>1.6383987358440875</v>
       </c>
-      <c r="F59" s="112">
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.5222065063649222</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.7697320782041999</v>
       </c>
-      <c r="H59" s="112">
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.5520833333333333</v>
       </c>
-      <c r="I59" s="112">
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.1305903398926656</v>
       </c>
-      <c r="J59" s="112">
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.267912207509523</v>
       </c>
-      <c r="K59" s="112">
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.7945205479452055</v>
       </c>
-      <c r="L59" s="112">
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.5528853754940712</v>
       </c>
-      <c r="M59" s="112">
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.8125352907961603</v>
       </c>
@@ -24833,45 +24843,45 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
         <v>1.0005279831045406</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
         <v>3.8443877551020407</v>
       </c>
-      <c r="F60" s="112">
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.0746527777777777</v>
       </c>
-      <c r="G60" s="112">
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.7524024872809496</v>
       </c>
-      <c r="H60" s="112">
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.5249864204236827</v>
       </c>
-      <c r="I60" s="112">
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>2.0352760736196318</v>
-      </c>
-      <c r="J60" s="112">
+        <v>2.035276073619632</v>
+      </c>
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>2.4810701665825339</v>
-      </c>
-      <c r="K60" s="112">
+        <v>2.481070166582534</v>
+      </c>
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.5402542372881354</v>
       </c>
-      <c r="L60" s="112">
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>1.4604938271604939</v>
-      </c>
-      <c r="M60" s="112">
+        <v>1.460493827160494</v>
+      </c>
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.3924902585901524</v>
       </c>
@@ -24956,7 +24966,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
         <v>-0.14617761843909893</v>
       </c>
@@ -24988,9 +24998,9 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
-        <v>5.6730663876813914E-3</v>
+        <v>0.005673066387681391</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -24998,9 +25008,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
-        <v>1.7428922123943869E-2</v>
+        <v>0.01742892212394387</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -25008,7 +25018,7 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
         <v>0.15326662715954398</v>
       </c>
@@ -25018,9 +25028,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>5.8744731312915022E-2</v>
+        <v>0.05874473131291502</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25028,9 +25038,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>4.4804524308318605E-2</v>
+        <v>0.044804524308318605</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25038,9 +25048,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>7.6139086068863548E-2</v>
+        <v>0.07613908606886355</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25048,7 +25058,7 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
         <v>0.24414838408334805</v>
       </c>
@@ -25057,27 +25067,27 @@
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
-        <v>8.6643739463315939E-2</v>
+        <v>0.08664373946331594</v>
       </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
-        <v>0.16023666392629529</v>
+        <v>0.1602366639262953</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
-        <v>0.39107107951335679</v>
+        <v>0.3910710795133568</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="17.5" thickBot="1">
@@ -25123,45 +25133,45 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
-        <v>6.3890941939722428</v>
-      </c>
-      <c r="E76" s="110">
+        <v>6.389094193972243</v>
+      </c>
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>3.6066121222240777</v>
       </c>
-      <c r="F76" s="110">
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>5.3115068135312811</v>
-      </c>
-      <c r="G76" s="110">
+        <v>5.311506813531281</v>
+      </c>
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>7.9023823358512493</v>
-      </c>
-      <c r="H76" s="110">
+        <v>7.902382335851249</v>
+      </c>
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>6.3208152212641631</v>
-      </c>
-      <c r="I76" s="110">
+        <v>6.320815221264163</v>
+      </c>
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>10.203029990724518</v>
       </c>
-      <c r="J76" s="110">
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>6.0149462300261254</v>
-      </c>
-      <c r="K76" s="110">
+        <v>6.014946230026125</v>
+      </c>
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>5.9815416763408402</v>
-      </c>
-      <c r="L76" s="110">
+        <v>5.98154167634084</v>
+      </c>
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>8.3918587677986167</v>
-      </c>
-      <c r="M76" s="110">
+        <v>8.391858767798617</v>
+      </c>
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>8.7938947883001539</v>
+        <v>8.793894788300154</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -25171,43 +25181,43 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
         <v>12.481950906465586</v>
       </c>
-      <c r="E77" s="110">
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>9.703504043126685</v>
       </c>
-      <c r="F77" s="110">
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>12.569544611580465</v>
       </c>
-      <c r="G77" s="110">
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>18.370739817123859</v>
-      </c>
-      <c r="H77" s="110">
+        <v>18.37073981712386</v>
+      </c>
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>16.800833412254949</v>
-      </c>
-      <c r="I77" s="110">
+        <v>16.80083341225495</v>
+      </c>
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>23.18320193583639</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>14.048531289910601</v>
       </c>
-      <c r="K77" s="110">
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>13.395294423501884</v>
       </c>
-      <c r="L77" s="110">
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>17.066203651842724</v>
       </c>
-      <c r="M77" s="110">
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>16.34445510070163</v>
       </c>
@@ -25216,37 +25226,37 @@
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
         <v>10.220000267028809</v>
       </c>
-      <c r="E78" s="40">
-        <v>7.4000000953674316</v>
-      </c>
-      <c r="F78" s="40">
+      <c r="E78" s="40" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="F78" s="40" t="n">
         <v>8.369999885559082</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="40" t="n">
         <v>11.970000267028809</v>
       </c>
-      <c r="H78" s="40">
-        <v>10.689999580383301</v>
-      </c>
-      <c r="I78" s="40">
+      <c r="H78" s="40" t="n">
+        <v>10.6899995803833</v>
+      </c>
+      <c r="I78" s="40" t="n">
         <v>15.079999923706055</v>
       </c>
-      <c r="J78" s="40">
-        <v>9.8599996566772461</v>
-      </c>
-      <c r="K78" s="40">
+      <c r="J78" s="40" t="n">
+        <v>9.859999656677246</v>
+      </c>
+      <c r="K78" s="40" t="n">
         <v>9.5</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="40" t="n">
         <v>12.489999771118164</v>
       </c>
-      <c r="M78" s="40">
+      <c r="M78" s="40" t="n">
         <v>12.739999771118164</v>
       </c>
     </row>
@@ -25290,83 +25300,83 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
         <v>14.479999542236328</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="40" t="n">
         <v>16.920000076293945</v>
       </c>
-      <c r="F81" s="40">
+      <c r="F81" s="40" t="n">
         <v>18.079999923706055</v>
       </c>
-      <c r="G81" s="40">
+      <c r="G81" s="40" t="n">
         <v>13.619999885559082</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="40" t="n">
         <v>16.920000076293945</v>
       </c>
-      <c r="I81" s="40">
-        <v>6.5199999809265137</v>
-      </c>
-      <c r="J81" s="40">
+      <c r="I81" s="40" t="n">
+        <v>6.519999980926514</v>
+      </c>
+      <c r="J81" s="40" t="n">
         <v>16.489999771118164</v>
       </c>
-      <c r="K81" s="40">
-        <v>11</v>
-      </c>
-      <c r="L81" s="40">
+      <c r="K81" s="40" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L81" s="40" t="n">
         <v>10.449999809265137</v>
       </c>
-      <c r="M81" s="40">
-        <v>6.9800000190734863</v>
+      <c r="M81" s="40" t="n">
+        <v>6.980000019073486</v>
       </c>
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
-        <v>9.3500003814697266</v>
-      </c>
-      <c r="E82" s="40">
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="E82" s="40" t="n">
         <v>12.390000343322754</v>
       </c>
-      <c r="F82" s="40">
-        <v>8.5699996948242188</v>
-      </c>
-      <c r="G82" s="40">
-        <v>8.8599996566772461</v>
-      </c>
-      <c r="H82" s="40">
+      <c r="F82" s="40" t="n">
+        <v>8.569999694824219</v>
+      </c>
+      <c r="G82" s="40" t="n">
+        <v>8.859999656677246</v>
+      </c>
+      <c r="H82" s="40" t="n">
         <v>11.539999961853027</v>
       </c>
-      <c r="I82" s="40">
-        <v>6.6500000953674316</v>
-      </c>
-      <c r="J82" s="40">
+      <c r="I82" s="40" t="n">
+        <v>6.650000095367432</v>
+      </c>
+      <c r="J82" s="40" t="n">
         <v>13.260000228881836</v>
       </c>
-      <c r="K82" s="40">
+      <c r="K82" s="40" t="n">
         <v>6.070000171661377</v>
       </c>
-      <c r="L82" s="40">
-        <v>8.2799997329711914</v>
-      </c>
-      <c r="M82" s="40">
-        <v>8.4099998474121094</v>
+      <c r="L82" s="40" t="n">
+        <v>8.279999732971191</v>
+      </c>
+      <c r="M82" s="40" t="n">
+        <v>8.40999984741211</v>
       </c>
     </row>
     <row r="83" spans="2:13">
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
+      <c r="C83" s="110" t="n">
         <v>7.179999828338623</v>
       </c>
     </row>

--- a/target/classes/companies/consumer_defense/TysonFoods/TSN_TysonFoods.xlsx
+++ b/target/classes/companies/consumer_defense/TysonFoods/TSN_TysonFoods.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18693,7 +18693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20123,8 +20123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20201,7 +20201,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="67" t="n">
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -21054,45 +21054,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21" t="n">
-        <f>L25*(1+C46)</f>
-        <v>6125.910005047919</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <f>C45*(1+D46)</f>
-        <v>6646.612360953985</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>7211.574417577616</v>
+      <c r="C45" s="60" t="n">
+        <v>3570.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>4240.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>5419.0</v>
       </c>
       <c r="F45" s="21" t="n">
-        <f t="shared" si="8"/>
-        <v>7824.55824951937</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>6069.279985465104</v>
       </c>
       <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>8489.64570772422</v>
+        <v>6797.593567441829</v>
       </c>
       <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>9211.265600471117</v>
+        <v>7613.304777302276</v>
       </c>
       <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>9994.223184746681</v>
+        <v>8526.90133015807</v>
       </c>
       <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>10843.732164385683</v>
+        <v>9550.129466906099</v>
       </c>
       <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>11765.44940805354</v>
+        <v>10696.14497731938</v>
       </c>
       <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>12765.512618257182</v>
+        <v>11979.68234590842</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21101,43 +21098,43 @@
       </c>
       <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>0.08500000089406967</v>
+        <v>0.11999999731779099</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21434,7 +21431,7 @@
       </c>
       <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>102124.1009460576</v>
+        <v>95837.4587672672</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21443,7 +21440,7 @@
       </c>
       <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>51752.498106904524</v>
+        <v>48566.67385540383</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21456,7 +21453,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>69015.84693258337</v>
+        <v>65830.02268108267</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21466,7 +21463,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>191.92963925630636</v>
+        <v>183.07002039338337</v>
       </c>
     </row>
   </sheetData>
@@ -21562,7 +21559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
